--- a/output/3Y_P8_KFSDIV.xlsx
+++ b/output/3Y_P8_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -985,7 +988,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>9.429399999999999</v>
@@ -1029,7 +1032,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-17</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>9.603999999999999</v>
@@ -1079,7 +1082,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-16</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.3595</v>
@@ -1129,7 +1132,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-15</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.0875</v>
@@ -1179,7 +1182,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-14</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.1692</v>
@@ -1229,7 +1232,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-13</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.0872</v>
@@ -1279,7 +1282,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-12</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>11.0976</v>
@@ -1329,7 +1332,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-11</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.8505</v>
@@ -1379,7 +1382,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>11.8576</v>
@@ -1429,7 +1432,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-9</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.5699</v>
@@ -1479,7 +1482,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-8</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.5994</v>
@@ -1529,7 +1532,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-7</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.6663</v>
@@ -1579,7 +1582,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-6</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.701</v>
@@ -1629,7 +1632,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-5</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.8109</v>
@@ -1679,7 +1682,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-4</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.9322</v>
@@ -1729,7 +1732,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-3</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.5846</v>
@@ -1779,7 +1782,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-2</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.2867</v>
@@ -1829,7 +1832,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.0645</v>
@@ -1879,7 +1882,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.8083</v>
@@ -1929,7 +1932,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.5636</v>
@@ -1979,7 +1982,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.1788</v>
@@ -2029,7 +2032,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>14.5668</v>
@@ -2079,7 +2082,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.962</v>
@@ -2129,7 +2132,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>12.2659</v>
@@ -2179,7 +2182,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>12.4103</v>
@@ -2229,7 +2232,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>12.3976</v>
@@ -2279,7 +2282,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>12.9013</v>
@@ -2329,7 +2332,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.3527</v>
@@ -2379,7 +2382,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>13.8804</v>
@@ -2429,7 +2432,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.6268</v>
@@ -2479,7 +2482,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>15.3636</v>
@@ -2529,7 +2532,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>13.8711</v>
@@ -2579,7 +2582,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.1252</v>
@@ -2629,7 +2632,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>14.1934</v>
@@ -2679,7 +2682,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>14.1176</v>
@@ -2729,7 +2732,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>15.3311</v>
@@ -2779,7 +2782,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>15.3637</v>
@@ -2914,7 +2917,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>9.429399999999999</v>
@@ -2961,7 +2964,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-17</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>9.603999999999999</v>
@@ -3014,7 +3017,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-16</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.3595</v>
@@ -3067,7 +3070,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-15</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.0875</v>
@@ -3120,7 +3123,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-14</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.1692</v>
@@ -3173,7 +3176,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-13</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.0872</v>
@@ -3226,7 +3229,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-12</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>11.0976</v>
@@ -3279,7 +3282,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-11</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.8505</v>
@@ -3332,7 +3335,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>11.8576</v>
@@ -3385,7 +3388,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-9</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.5699</v>
@@ -3438,7 +3441,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-8</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.5994</v>
@@ -3491,7 +3494,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-7</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.6663</v>
@@ -3544,7 +3547,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-6</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.701</v>
@@ -3597,7 +3600,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-5</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.8109</v>
@@ -3650,7 +3653,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-4</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.9322</v>
@@ -3703,7 +3706,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-3</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.5846</v>
@@ -3756,7 +3759,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-2</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.2867</v>
@@ -3809,7 +3812,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.0645</v>
@@ -3862,7 +3865,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.8083</v>
@@ -3892,10 +3895,10 @@
         <v>230879.3797</v>
       </c>
       <c r="K20" s="1">
-        <v>160576.7047</v>
+        <v>160579.7633</v>
       </c>
       <c r="L20" s="1">
-        <v>11.6315</v>
+        <v>11.6317</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -3915,7 +3918,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.5636</v>
@@ -3945,10 +3948,10 @@
         <v>237512.497</v>
       </c>
       <c r="K21" s="1">
-        <v>160327.9808</v>
+        <v>160332.0335</v>
       </c>
       <c r="L21" s="1">
-        <v>11.6286</v>
+        <v>11.6289</v>
       </c>
       <c r="M21" s="1">
         <v>0.5</v>
@@ -3968,7 +3971,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.1788</v>
@@ -3998,10 +4001,10 @@
         <v>247988.1799</v>
       </c>
       <c r="K22" s="1">
-        <v>173748.4831</v>
+        <v>173752.5358</v>
       </c>
       <c r="L22" s="1">
-        <v>11.7597</v>
+        <v>11.76</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -4021,7 +4024,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>14.5668</v>
@@ -4051,10 +4054,10 @@
         <v>280043.8776</v>
       </c>
       <c r="K23" s="1">
-        <v>189486.4369</v>
+        <v>189490.4896</v>
       </c>
       <c r="L23" s="1">
-        <v>11.8676</v>
+        <v>11.8679</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -4074,7 +4077,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.962</v>
@@ -4104,10 +4107,10 @@
         <v>280909.5579</v>
       </c>
       <c r="K24" s="1">
-        <v>177319.2133</v>
+        <v>177371.8649</v>
       </c>
       <c r="L24" s="1">
-        <v>11.7173</v>
+        <v>11.7208</v>
       </c>
       <c r="M24" s="1">
         <v>0.5</v>
@@ -4127,7 +4130,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>12.2659</v>
@@ -4157,10 +4160,10 @@
         <v>269702.5153</v>
       </c>
       <c r="K25" s="1">
-        <v>196530.295</v>
+        <v>196582.9466</v>
       </c>
       <c r="L25" s="1">
-        <v>11.9064</v>
+        <v>11.9096</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -4180,7 +4183,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>12.4103</v>
@@ -4210,10 +4213,10 @@
         <v>282375.5051</v>
       </c>
       <c r="K26" s="1">
-        <v>234622.6333</v>
+        <v>234675.2849</v>
       </c>
       <c r="L26" s="1">
-        <v>11.9671</v>
+        <v>11.9698</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -4233,7 +4236,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>12.3976</v>
@@ -4263,10 +4266,10 @@
         <v>292090.3661</v>
       </c>
       <c r="K27" s="1">
-        <v>241826.2572</v>
+        <v>241878.9087</v>
       </c>
       <c r="L27" s="1">
-        <v>11.9806</v>
+        <v>11.9832</v>
       </c>
       <c r="M27" s="1">
         <v>0.5</v>
@@ -4286,7 +4289,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>12.9013</v>
@@ -4316,10 +4319,10 @@
         <v>321696.1084</v>
       </c>
       <c r="K28" s="1">
-        <v>252123.7209</v>
+        <v>252176.3725</v>
       </c>
       <c r="L28" s="1">
-        <v>11.998</v>
+        <v>12.0005</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -4339,7 +4342,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.3527</v>
@@ -4369,10 +4372,10 @@
         <v>341143.1202</v>
       </c>
       <c r="K29" s="1">
-        <v>251557.8018</v>
+        <v>251612.7167</v>
       </c>
       <c r="L29" s="1">
-        <v>11.996</v>
+        <v>11.9987</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -4392,7 +4395,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>13.8804</v>
@@ -4422,10 +4425,10 @@
         <v>362205.5857</v>
       </c>
       <c r="K30" s="1">
-        <v>252113.0102</v>
+        <v>252167.925</v>
       </c>
       <c r="L30" s="1">
-        <v>11.9988</v>
+        <v>12.0014</v>
       </c>
       <c r="M30" s="1">
         <v>0.5</v>
@@ -4445,7 +4448,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.6268</v>
@@ -4475,10 +4478,10 @@
         <v>397257.1362</v>
       </c>
       <c r="K31" s="1">
-        <v>251044.0513</v>
+        <v>251103.2395</v>
       </c>
       <c r="L31" s="1">
-        <v>11.9918</v>
+        <v>11.9946</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -4498,7 +4501,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>15.3636</v>
@@ -4528,10 +4531,10 @@
         <v>422368.5244</v>
       </c>
       <c r="K32" s="1">
-        <v>245425.2737</v>
+        <v>245506.8893</v>
       </c>
       <c r="L32" s="1">
-        <v>11.9421</v>
+        <v>11.946</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -4551,7 +4554,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>13.8711</v>
@@ -4581,10 +4584,10 @@
         <v>402253.8689</v>
       </c>
       <c r="K33" s="1">
-        <v>240293.3838</v>
+        <v>240395.5011</v>
       </c>
       <c r="L33" s="1">
-        <v>11.8851</v>
+        <v>11.8902</v>
       </c>
       <c r="M33" s="1">
         <v>0.5</v>
@@ -4604,7 +4607,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.1252</v>
@@ -4634,10 +4637,10 @@
         <v>427053.2709</v>
       </c>
       <c r="K34" s="1">
-        <v>280568.8641</v>
+        <v>280670.9814</v>
       </c>
       <c r="L34" s="1">
-        <v>12.1376</v>
+        <v>12.142</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -4657,7 +4660,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>14.1934</v>
@@ -4687,10 +4690,10 @@
         <v>438628.5147</v>
       </c>
       <c r="K35" s="1">
-        <v>284723.3048</v>
+        <v>284825.4221</v>
       </c>
       <c r="L35" s="1">
-        <v>12.1629</v>
+        <v>12.1672</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -4710,7 +4713,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>14.1176</v>
@@ -4740,10 +4743,10 @@
         <v>446780.1854</v>
       </c>
       <c r="K36" s="1">
-        <v>293165.1925</v>
+        <v>293267.3098</v>
       </c>
       <c r="L36" s="1">
-        <v>12.2138</v>
+        <v>12.218</v>
       </c>
       <c r="M36" s="1">
         <v>0.5</v>
@@ -4763,7 +4766,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>15.3311</v>
@@ -4793,10 +4796,10 @@
         <v>497616.9775</v>
       </c>
       <c r="K37" s="1">
-        <v>305027.1838</v>
+        <v>305129.3011</v>
       </c>
       <c r="L37" s="1">
-        <v>12.279</v>
+        <v>12.2831</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -4816,7 +4819,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>15.3637</v>
@@ -4846,10 +4849,10 @@
         <v>508384.0163</v>
       </c>
       <c r="K38" s="1">
-        <v>284863.6926</v>
+        <v>285046.4019</v>
       </c>
       <c r="L38" s="1">
-        <v>12.107</v>
+        <v>12.1148</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -4954,7 +4957,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>9.429399999999999</v>
@@ -5001,7 +5004,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-17</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>9.603999999999999</v>
@@ -5054,7 +5057,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-16</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.3595</v>
@@ -5107,7 +5110,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-15</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.0875</v>
@@ -5160,7 +5163,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-14</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.1692</v>
@@ -5213,7 +5216,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-13</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.0872</v>
@@ -5266,7 +5269,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-12</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>11.0976</v>
@@ -5319,7 +5322,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-11</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.8505</v>
@@ -5372,7 +5375,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>11.8576</v>
@@ -5425,7 +5428,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-9</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.5699</v>
@@ -5478,7 +5481,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-8</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.5994</v>
@@ -5531,7 +5534,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-7</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.6663</v>
@@ -5584,7 +5587,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-6</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.701</v>
@@ -5637,7 +5640,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-5</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.8109</v>
@@ -5690,7 +5693,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-4</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.9322</v>
@@ -5743,7 +5746,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-3</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.5846</v>
@@ -5796,7 +5799,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-2</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.2867</v>
@@ -5849,7 +5852,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.0645</v>
@@ -5902,7 +5905,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.8083</v>
@@ -5932,10 +5935,10 @@
         <v>232151.2646</v>
       </c>
       <c r="K20" s="1">
-        <v>168208.4857</v>
+        <v>168209.7657</v>
       </c>
       <c r="L20" s="1">
-        <v>11.6746</v>
+        <v>11.6747</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -5955,7 +5958,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.5636</v>
@@ -5985,10 +5988,10 @@
         <v>238627.5123</v>
       </c>
       <c r="K21" s="1">
-        <v>168453.6618</v>
+        <v>168454.9417</v>
       </c>
       <c r="L21" s="1">
-        <v>11.6773</v>
+        <v>11.6774</v>
       </c>
       <c r="M21" s="1">
         <v>0.5</v>
@@ -6008,7 +6011,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.1788</v>
@@ -6038,10 +6041,10 @@
         <v>249108.0232</v>
       </c>
       <c r="K22" s="1">
-        <v>183028.6521</v>
+        <v>183029.9321</v>
       </c>
       <c r="L22" s="1">
-        <v>11.8097</v>
+        <v>11.8098</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -6061,7 +6064,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>14.5668</v>
@@ -6091,10 +6094,10 @@
         <v>282300.1485</v>
       </c>
       <c r="K23" s="1">
-        <v>200098.7133</v>
+        <v>200099.9933</v>
       </c>
       <c r="L23" s="1">
-        <v>11.9171</v>
+        <v>11.9172</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -6114,7 +6117,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.962</v>
@@ -6144,10 +6147,10 @@
         <v>282669.9054</v>
       </c>
       <c r="K24" s="1">
-        <v>187893.7857</v>
+        <v>187943.8152</v>
       </c>
       <c r="L24" s="1">
-        <v>11.7767</v>
+        <v>11.7799</v>
       </c>
       <c r="M24" s="1">
         <v>0.5</v>
@@ -6167,7 +6170,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>12.2659</v>
@@ -6197,10 +6200,10 @@
         <v>270234.0808</v>
       </c>
       <c r="K25" s="1">
-        <v>208767.1544</v>
+        <v>208817.1838</v>
       </c>
       <c r="L25" s="1">
-        <v>11.966</v>
+        <v>11.9689</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -6220,7 +6223,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>12.4103</v>
@@ -6250,10 +6253,10 @@
         <v>283064.3733</v>
       </c>
       <c r="K26" s="1">
-        <v>249678.1375</v>
+        <v>249728.167</v>
       </c>
       <c r="L26" s="1">
-        <v>12.018</v>
+        <v>12.0204</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -6273,7 +6276,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>12.3976</v>
@@ -6303,10 +6306,10 @@
         <v>292758.821</v>
       </c>
       <c r="K27" s="1">
-        <v>257989.2223</v>
+        <v>258039.2517</v>
       </c>
       <c r="L27" s="1">
-        <v>12.031</v>
+        <v>12.0333</v>
       </c>
       <c r="M27" s="1">
         <v>0.5</v>
@@ -6326,7 +6329,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>12.9013</v>
@@ -6356,10 +6359,10 @@
         <v>323613.0599</v>
       </c>
       <c r="K28" s="1">
-        <v>269636.0164</v>
+        <v>269686.0458</v>
       </c>
       <c r="L28" s="1">
-        <v>12.0474</v>
+        <v>12.0496</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -6379,7 +6382,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.3527</v>
@@ -6409,10 +6412,10 @@
         <v>343699.9625</v>
       </c>
       <c r="K29" s="1">
-        <v>269770.0784</v>
+        <v>269820.1079</v>
       </c>
       <c r="L29" s="1">
-        <v>12.0478</v>
+        <v>12.05</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -6432,7 +6435,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>13.8804</v>
@@ -6462,10 +6465,10 @@
         <v>365539.4784</v>
       </c>
       <c r="K30" s="1">
-        <v>271129.5944</v>
+        <v>271179.6239</v>
       </c>
       <c r="L30" s="1">
-        <v>12.0538</v>
+        <v>12.056</v>
       </c>
       <c r="M30" s="1">
         <v>0.5</v>
@@ -6485,7 +6488,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.6268</v>
@@ -6515,10 +6518,10 @@
         <v>402400.3073</v>
       </c>
       <c r="K31" s="1">
-        <v>270781.9787</v>
+        <v>270833.3978</v>
       </c>
       <c r="L31" s="1">
-        <v>12.0518</v>
+        <v>12.054</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -6538,7 +6541,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>15.3636</v>
@@ -6568,10 +6571,10 @@
         <v>428660.1693</v>
       </c>
       <c r="K32" s="1">
-        <v>265578.5684</v>
+        <v>265650.757</v>
       </c>
       <c r="L32" s="1">
-        <v>12.0099</v>
+        <v>12.0132</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -6591,7 +6594,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>13.8711</v>
@@ -6621,10 +6624,10 @@
         <v>406173.8229</v>
       </c>
       <c r="K33" s="1">
-        <v>260914.0727</v>
+        <v>261004.8958</v>
       </c>
       <c r="L33" s="1">
-        <v>11.9629</v>
+        <v>11.9671</v>
       </c>
       <c r="M33" s="1">
         <v>0.5</v>
@@ -6644,7 +6647,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.1252</v>
@@ -6674,10 +6677,10 @@
         <v>432151.4148</v>
       </c>
       <c r="K34" s="1">
-        <v>305249.5269</v>
+        <v>305340.3499</v>
       </c>
       <c r="L34" s="1">
-        <v>12.2099</v>
+        <v>12.2136</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -6697,7 +6700,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>14.1934</v>
@@ -6727,10 +6730,10 @@
         <v>443855.8183</v>
       </c>
       <c r="K35" s="1">
-        <v>310661.5398</v>
+        <v>310752.3629</v>
       </c>
       <c r="L35" s="1">
-        <v>12.2392</v>
+        <v>12.2428</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -6750,7 +6753,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>14.1176</v>
@@ -6780,10 +6783,10 @@
         <v>451842.8442</v>
       </c>
       <c r="K36" s="1">
-        <v>320764.967</v>
+        <v>320855.7901</v>
       </c>
       <c r="L36" s="1">
-        <v>12.2932</v>
+        <v>12.2967</v>
       </c>
       <c r="M36" s="1">
         <v>0.5</v>
@@ -6803,7 +6806,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>15.3311</v>
@@ -6833,10 +6836,10 @@
         <v>506315.6089</v>
       </c>
       <c r="K37" s="1">
-        <v>334641.0404</v>
+        <v>334731.8634</v>
       </c>
       <c r="L37" s="1">
-        <v>12.3603</v>
+        <v>12.3637</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -6856,7 +6859,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>15.3637</v>
@@ -6886,10 +6889,10 @@
         <v>517153.7288</v>
       </c>
       <c r="K38" s="1">
-        <v>313678.1345</v>
+        <v>313852.7448</v>
       </c>
       <c r="L38" s="1">
-        <v>12.201</v>
+        <v>12.2078</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -6994,7 +6997,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>9.429399999999999</v>
@@ -7041,7 +7044,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-17</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>9.603999999999999</v>
@@ -7094,7 +7097,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-16</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.3595</v>
@@ -7147,7 +7150,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-15</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.0875</v>
@@ -7200,7 +7203,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-14</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.1692</v>
@@ -7253,7 +7256,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-13</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.0872</v>
@@ -7306,7 +7309,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-12</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>11.0976</v>
@@ -7359,7 +7362,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-11</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.8505</v>
@@ -7412,7 +7415,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>11.8576</v>
@@ -7465,7 +7468,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-9</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.5699</v>
@@ -7518,7 +7521,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-8</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.5994</v>
@@ -7571,7 +7574,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-7</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.6663</v>
@@ -7624,7 +7627,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-6</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.701</v>
@@ -7677,7 +7680,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-5</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.8109</v>
@@ -7730,7 +7733,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-4</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.9322</v>
@@ -7783,7 +7786,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-3</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.5846</v>
@@ -7836,7 +7839,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-2</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.2867</v>
@@ -7889,7 +7892,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.0645</v>
@@ -7942,7 +7945,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.8083</v>
@@ -7995,7 +7998,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.5636</v>
@@ -8048,7 +8051,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.1788</v>
@@ -8101,7 +8104,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>14.5668</v>
@@ -8154,7 +8157,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.962</v>
@@ -8184,10 +8187,10 @@
         <v>284506.8404</v>
       </c>
       <c r="K24" s="1">
-        <v>199222.7652</v>
+        <v>199271.5027</v>
       </c>
       <c r="L24" s="1">
-        <v>11.8351</v>
+        <v>11.838</v>
       </c>
       <c r="M24" s="1">
         <v>0.5</v>
@@ -8207,7 +8210,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>12.2659</v>
@@ -8237,10 +8240,10 @@
         <v>270751.1831</v>
       </c>
       <c r="K25" s="1">
-        <v>221921.1332</v>
+        <v>221969.8706</v>
       </c>
       <c r="L25" s="1">
-        <v>12.0246</v>
+        <v>12.0272</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -8260,7 +8263,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>12.4103</v>
@@ -8290,10 +8293,10 @@
         <v>283750.6454</v>
       </c>
       <c r="K26" s="1">
-        <v>265908.3869</v>
+        <v>265957.1244</v>
       </c>
       <c r="L26" s="1">
-        <v>12.0678</v>
+        <v>12.07</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -8313,7 +8316,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>12.3976</v>
@@ -8343,10 +8346,10 @@
         <v>293422.8316</v>
       </c>
       <c r="K27" s="1">
-        <v>275468.7542</v>
+        <v>275517.4916</v>
       </c>
       <c r="L27" s="1">
-        <v>12.0801</v>
+        <v>12.0823</v>
       </c>
       <c r="M27" s="1">
         <v>0.5</v>
@@ -8366,7 +8369,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>12.9013</v>
@@ -8396,10 +8399,10 @@
         <v>325627.9084</v>
       </c>
       <c r="K28" s="1">
-        <v>288635.2488</v>
+        <v>288683.9862</v>
       </c>
       <c r="L28" s="1">
-        <v>12.0953</v>
+        <v>12.0974</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -8419,7 +8422,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.3527</v>
@@ -8449,10 +8452,10 @@
         <v>346407.9675</v>
       </c>
       <c r="K29" s="1">
-        <v>289595.5522</v>
+        <v>289644.2897</v>
       </c>
       <c r="L29" s="1">
-        <v>12.0979</v>
+        <v>12.1</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -8472,7 +8475,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>13.8804</v>
@@ -8502,10 +8505,10 @@
         <v>369095.1107</v>
       </c>
       <c r="K30" s="1">
-        <v>291902.968</v>
+        <v>291951.7054</v>
       </c>
       <c r="L30" s="1">
-        <v>12.1071</v>
+        <v>12.1091</v>
       </c>
       <c r="M30" s="1">
         <v>0.5</v>
@@ -8525,7 +8528,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.6268</v>
@@ -8555,10 +8558,10 @@
         <v>407932.3665</v>
       </c>
       <c r="K31" s="1">
-        <v>292421.5811</v>
+        <v>292470.3186</v>
       </c>
       <c r="L31" s="1">
-        <v>12.1099</v>
+        <v>12.1119</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -8578,7 +8581,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>15.3636</v>
@@ -8608,10 +8611,10 @@
         <v>435453.9665</v>
       </c>
       <c r="K32" s="1">
-        <v>287758.2143</v>
+        <v>287825.5656</v>
       </c>
       <c r="L32" s="1">
-        <v>12.0759</v>
+        <v>12.0787</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -8631,7 +8634,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>13.8711</v>
@@ -8661,10 +8664,10 @@
         <v>410353.1591</v>
       </c>
       <c r="K33" s="1">
-        <v>283698.8867</v>
+        <v>283782.4549</v>
       </c>
       <c r="L33" s="1">
-        <v>12.0387</v>
+        <v>12.0423</v>
       </c>
       <c r="M33" s="1">
         <v>0.5</v>
@@ -8684,7 +8687,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.1252</v>
@@ -8714,10 +8717,10 @@
         <v>437630.9444</v>
       </c>
       <c r="K34" s="1">
-        <v>332608.2692</v>
+        <v>332691.8374</v>
       </c>
       <c r="L34" s="1">
-        <v>12.2804</v>
+        <v>12.2835</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -8737,7 +8740,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>14.1934</v>
@@ -8767,10 +8770,10 @@
         <v>449478.2992</v>
       </c>
       <c r="K35" s="1">
-        <v>339516.6409</v>
+        <v>339600.2091</v>
       </c>
       <c r="L35" s="1">
-        <v>12.3136</v>
+        <v>12.3166</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -8790,7 +8793,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>14.1176</v>
@@ -8820,10 +8823,10 @@
         <v>457281.5396</v>
       </c>
       <c r="K36" s="1">
-        <v>351576.7757</v>
+        <v>351660.3439</v>
       </c>
       <c r="L36" s="1">
-        <v>12.3705</v>
+        <v>12.3735</v>
       </c>
       <c r="M36" s="1">
         <v>0.5</v>
@@ -8843,7 +8846,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>15.3311</v>
@@ -8873,10 +8876,10 @@
         <v>515813.4049</v>
       </c>
       <c r="K37" s="1">
-        <v>367815.9995</v>
+        <v>367899.5677</v>
       </c>
       <c r="L37" s="1">
-        <v>12.4394</v>
+        <v>12.4423</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -8896,7 +8899,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>15.3637</v>
@@ -8926,10 +8929,10 @@
         <v>526731.2282</v>
       </c>
       <c r="K38" s="1">
-        <v>346087.6986</v>
+        <v>346258.1132</v>
       </c>
       <c r="L38" s="1">
-        <v>12.2926</v>
+        <v>12.2987</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -9034,7 +9037,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>9.429399999999999</v>
@@ -9081,7 +9084,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-17</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>9.603999999999999</v>
@@ -9134,7 +9137,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-16</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.3595</v>
@@ -9187,7 +9190,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-15</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.0875</v>
@@ -9240,7 +9243,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-14</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.1692</v>
@@ -9293,7 +9296,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-13</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.0872</v>
@@ -9346,7 +9349,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-12</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>11.0976</v>
@@ -9399,7 +9402,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-11</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.8505</v>
@@ -9452,7 +9455,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>11.8576</v>
@@ -9505,7 +9508,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-9</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.5699</v>
@@ -9558,7 +9561,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-8</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.5994</v>
@@ -9611,7 +9614,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-7</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.6663</v>
@@ -9664,7 +9667,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-6</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.701</v>
@@ -9717,7 +9720,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-5</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.8109</v>
@@ -9770,7 +9773,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-4</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.9322</v>
@@ -9823,7 +9826,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-3</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.5846</v>
@@ -9876,7 +9879,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-2</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.2867</v>
@@ -9929,7 +9932,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.0645</v>
@@ -9982,7 +9985,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.8083</v>
@@ -10035,7 +10038,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.5636</v>
@@ -10088,7 +10091,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.1788</v>
@@ -10141,7 +10144,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>14.5668</v>
@@ -10194,7 +10197,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.962</v>
@@ -10224,10 +10227,10 @@
         <v>286379.0262</v>
       </c>
       <c r="K24" s="1">
-        <v>211405.5675</v>
+        <v>211454.1054</v>
       </c>
       <c r="L24" s="1">
-        <v>11.8949</v>
+        <v>11.8976</v>
       </c>
       <c r="M24" s="1">
         <v>0.5</v>
@@ -10247,7 +10250,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>12.2659</v>
@@ -10277,10 +10280,10 @@
         <v>271205.2674</v>
       </c>
       <c r="K25" s="1">
-        <v>236107.5755</v>
+        <v>236156.1134</v>
       </c>
       <c r="L25" s="1">
-        <v>12.0842</v>
+        <v>12.0867</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -10300,7 +10303,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>12.4103</v>
@@ -10330,10 +10333,10 @@
         <v>284345.6125</v>
       </c>
       <c r="K26" s="1">
-        <v>278134.2283</v>
+        <v>278182.7663</v>
       </c>
       <c r="L26" s="1">
-        <v>12.1149</v>
+        <v>12.1171</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -10353,7 +10356,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>12.3976</v>
@@ -10383,10 +10386,10 @@
         <v>294003.8665</v>
       </c>
       <c r="K27" s="1">
-        <v>288134.2283</v>
+        <v>288182.7663</v>
       </c>
       <c r="L27" s="1">
-        <v>12.1258</v>
+        <v>12.1278</v>
       </c>
       <c r="M27" s="1">
         <v>0.5</v>
@@ -10406,7 +10409,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>12.9013</v>
@@ -10436,10 +10439,10 @@
         <v>327006.7755</v>
       </c>
       <c r="K28" s="1">
-        <v>298134.2283</v>
+        <v>298182.7663</v>
       </c>
       <c r="L28" s="1">
-        <v>12.1355</v>
+        <v>12.1375</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -10459,7 +10462,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.3527</v>
@@ -10489,10 +10492,10 @@
         <v>348494.0419</v>
       </c>
       <c r="K29" s="1">
-        <v>311741.6087</v>
+        <v>311790.1467</v>
       </c>
       <c r="L29" s="1">
-        <v>12.168</v>
+        <v>12.1699</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -10512,7 +10515,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>13.8804</v>
@@ -10542,10 +10545,10 @@
         <v>372106.3208</v>
       </c>
       <c r="K30" s="1">
-        <v>315161.5992</v>
+        <v>315210.1371</v>
       </c>
       <c r="L30" s="1">
-        <v>12.18</v>
+        <v>12.1819</v>
       </c>
       <c r="M30" s="1">
         <v>0.5</v>
@@ -10565,7 +10568,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.6268</v>
@@ -10595,10 +10598,10 @@
         <v>413104.3055</v>
       </c>
       <c r="K31" s="1">
-        <v>316714.0729</v>
+        <v>316762.6109</v>
       </c>
       <c r="L31" s="1">
-        <v>12.1874</v>
+        <v>12.1893</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -10618,7 +10621,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>15.3636</v>
@@ -10648,10 +10651,10 @@
         <v>442013.025</v>
       </c>
       <c r="K32" s="1">
-        <v>312737.7187</v>
+        <v>312802.1283</v>
       </c>
       <c r="L32" s="1">
-        <v>12.1614</v>
+        <v>12.1639</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -10671,7 +10674,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>13.8711</v>
@@ -10701,10 +10704,10 @@
         <v>414027.9903</v>
       </c>
       <c r="K33" s="1">
-        <v>309446.6537</v>
+        <v>309524.211</v>
       </c>
       <c r="L33" s="1">
-        <v>12.1343</v>
+        <v>12.1373</v>
       </c>
       <c r="M33" s="1">
         <v>0.5</v>
@@ -10724,7 +10727,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.1252</v>
@@ -10754,10 +10757,10 @@
         <v>442741.7072</v>
       </c>
       <c r="K34" s="1">
-        <v>363512.8456</v>
+        <v>363590.4029</v>
       </c>
       <c r="L34" s="1">
-        <v>12.3678</v>
+        <v>12.3705</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -10777,7 +10780,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>14.1934</v>
@@ -10807,10 +10810,10 @@
         <v>454747.4077</v>
       </c>
       <c r="K35" s="1">
-        <v>372196.9869</v>
+        <v>372274.5442</v>
       </c>
       <c r="L35" s="1">
-        <v>12.4043</v>
+        <v>12.4069</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -10830,7 +10833,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>14.1176</v>
@@ -10860,10 +10863,10 @@
         <v>462345.2963</v>
       </c>
       <c r="K36" s="1">
-        <v>386558.7706</v>
+        <v>386636.3279</v>
       </c>
       <c r="L36" s="1">
-        <v>12.4635</v>
+        <v>12.466</v>
       </c>
       <c r="M36" s="1">
         <v>0.5</v>
@@ -10883,7 +10886,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>15.3311</v>
@@ -10913,10 +10916,10 @@
         <v>525413.1449</v>
       </c>
       <c r="K37" s="1">
-        <v>405569.417</v>
+        <v>405646.9743</v>
       </c>
       <c r="L37" s="1">
-        <v>12.5334</v>
+        <v>12.5358</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -10936,7 +10939,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>15.3637</v>
@@ -10966,10 +10969,10 @@
         <v>536420.4366</v>
       </c>
       <c r="K38" s="1">
-        <v>383131.6284</v>
+        <v>383298.8679</v>
       </c>
       <c r="L38" s="1">
-        <v>12.3997</v>
+        <v>12.4051</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -10994,13 +10997,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
@@ -11045,16 +11048,16 @@
         <v>12.953</v>
       </c>
       <c r="D3" s="1">
-        <v>12.107</v>
+        <v>12.1148</v>
       </c>
       <c r="E3" s="1">
-        <v>12.201</v>
+        <v>12.2078</v>
       </c>
       <c r="F3" s="1">
-        <v>12.2926</v>
+        <v>12.2987</v>
       </c>
       <c r="G3" s="1">
-        <v>12.3997</v>
+        <v>12.4051</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -11164,6 +11167,26 @@
       </c>
       <c r="G8" s="1">
         <v>85952.3207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.1837</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.7835</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.6478</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.5212</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.3995</v>
       </c>
     </row>
   </sheetData>
